--- a/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_all_fwidths.xlsx
+++ b/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_all_fwidths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E322BC6-6FC0-46DA-AA70-90BCCA94E1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F1BCEC-1D34-487D-9128-2702CC1C1CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{2BB23B0F-61BD-4C4B-80D0-6010D53B8653}"/>
   </bookViews>
